--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.009008</v>
+        <v>0.1487266666666667</v>
       </c>
       <c r="H2">
-        <v>0.027024</v>
+        <v>0.44618</v>
       </c>
       <c r="I2">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="J2">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4440536666666667</v>
+        <v>0.242595</v>
       </c>
       <c r="N2">
-        <v>1.332161</v>
+        <v>0.727785</v>
       </c>
       <c r="O2">
-        <v>0.06598745121877765</v>
+        <v>0.03230700759563258</v>
       </c>
       <c r="P2">
-        <v>0.06598745121877764</v>
+        <v>0.03230700759563257</v>
       </c>
       <c r="Q2">
-        <v>0.004000035429333334</v>
+        <v>0.0360803457</v>
       </c>
       <c r="R2">
-        <v>0.036000318864</v>
+        <v>0.3247231113</v>
       </c>
       <c r="S2">
-        <v>0.0006450559369864533</v>
+        <v>0.003583885093086805</v>
       </c>
       <c r="T2">
-        <v>0.0006450559369864531</v>
+        <v>0.003583885093086804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.009008</v>
+        <v>0.1487266666666667</v>
       </c>
       <c r="H3">
-        <v>0.027024</v>
+        <v>0.44618</v>
       </c>
       <c r="I3">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="J3">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.023054</v>
       </c>
       <c r="O3">
-        <v>0.5460175144798203</v>
+        <v>0.4893229309549773</v>
       </c>
       <c r="P3">
-        <v>0.5460175144798202</v>
+        <v>0.4893229309549771</v>
       </c>
       <c r="Q3">
-        <v>0.03309855681066667</v>
+        <v>0.5464740259688889</v>
       </c>
       <c r="R3">
-        <v>0.297887011296</v>
+        <v>4.918266233720001</v>
       </c>
       <c r="S3">
-        <v>0.005337557867571767</v>
+        <v>0.05428163387661311</v>
       </c>
       <c r="T3">
-        <v>0.005337557867571765</v>
+        <v>0.0542816338766131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.009008</v>
+        <v>0.1487266666666667</v>
       </c>
       <c r="H4">
-        <v>0.027024</v>
+        <v>0.44618</v>
       </c>
       <c r="I4">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="J4">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.602650666666667</v>
+        <v>3.574634666666667</v>
       </c>
       <c r="N4">
-        <v>7.807952</v>
+        <v>10.723904</v>
       </c>
       <c r="O4">
-        <v>0.3867601976927394</v>
+        <v>0.4760434029044768</v>
       </c>
       <c r="P4">
-        <v>0.3867601976927393</v>
+        <v>0.4760434029044767</v>
       </c>
       <c r="Q4">
-        <v>0.02344467720533334</v>
+        <v>0.5316434985244445</v>
       </c>
       <c r="R4">
-        <v>0.211002094848</v>
+        <v>4.784791486720001</v>
       </c>
       <c r="S4">
-        <v>0.003780748568157492</v>
+        <v>0.05280850757475622</v>
       </c>
       <c r="T4">
-        <v>0.00378074856815749</v>
+        <v>0.05280850757475622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.009008</v>
+        <v>0.1487266666666667</v>
       </c>
       <c r="H5">
-        <v>0.027024</v>
+        <v>0.44618</v>
       </c>
       <c r="I5">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="J5">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.008309666666666667</v>
+        <v>0.017471</v>
       </c>
       <c r="N5">
-        <v>0.024929</v>
+        <v>0.052413</v>
       </c>
       <c r="O5">
-        <v>0.001234836608662848</v>
+        <v>0.002326658544913526</v>
       </c>
       <c r="P5">
-        <v>0.001234836608662848</v>
+        <v>0.002326658544913525</v>
       </c>
       <c r="Q5">
-        <v>7.485347733333334E-05</v>
+        <v>0.002598403593333333</v>
       </c>
       <c r="R5">
-        <v>0.000673681296</v>
+        <v>0.02338563234</v>
       </c>
       <c r="S5">
-        <v>1.207106307205758E-05</v>
+        <v>0.0002581011828822505</v>
       </c>
       <c r="T5">
-        <v>1.207106307205757E-05</v>
+        <v>0.0002581011828822505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.222109</v>
       </c>
       <c r="I6">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400421</v>
       </c>
       <c r="J6">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400422</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4440536666666667</v>
+        <v>0.242595</v>
       </c>
       <c r="N6">
-        <v>1.332161</v>
+        <v>0.727785</v>
       </c>
       <c r="O6">
-        <v>0.06598745121877765</v>
+        <v>0.03230700759563258</v>
       </c>
       <c r="P6">
-        <v>0.06598745121877764</v>
+        <v>0.03230700759563257</v>
       </c>
       <c r="Q6">
-        <v>0.03287610528322223</v>
+        <v>0.017960844285</v>
       </c>
       <c r="R6">
-        <v>0.295884947549</v>
+        <v>0.161647598565</v>
       </c>
       <c r="S6">
-        <v>0.005301684765694351</v>
+        <v>0.001784062786634132</v>
       </c>
       <c r="T6">
-        <v>0.00530168476569435</v>
+        <v>0.001784062786634132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.222109</v>
       </c>
       <c r="I7">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400421</v>
       </c>
       <c r="J7">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400422</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>11.023054</v>
       </c>
       <c r="O7">
-        <v>0.5460175144798203</v>
+        <v>0.4893229309549773</v>
       </c>
       <c r="P7">
-        <v>0.5460175144798202</v>
+        <v>0.4893229309549771</v>
       </c>
       <c r="Q7">
         <v>0.2720355000984445</v>
@@ -883,10 +883,10 @@
         <v>2.448319500886</v>
       </c>
       <c r="S7">
-        <v>0.04386914003879874</v>
+        <v>0.02702146985230324</v>
       </c>
       <c r="T7">
-        <v>0.04386914003879874</v>
+        <v>0.02702146985230324</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.222109</v>
       </c>
       <c r="I8">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400421</v>
       </c>
       <c r="J8">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400422</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.602650666666667</v>
+        <v>3.574634666666667</v>
       </c>
       <c r="N8">
-        <v>7.807952</v>
+        <v>10.723904</v>
       </c>
       <c r="O8">
-        <v>0.3867601976927394</v>
+        <v>0.4760434029044768</v>
       </c>
       <c r="P8">
-        <v>0.3867601976927393</v>
+        <v>0.4760434029044767</v>
       </c>
       <c r="Q8">
-        <v>0.1926907123075556</v>
+        <v>0.2646528437262222</v>
       </c>
       <c r="R8">
-        <v>1.734216410768</v>
+        <v>2.381875593536</v>
       </c>
       <c r="S8">
-        <v>0.03107379676305847</v>
+        <v>0.02628814561146069</v>
       </c>
       <c r="T8">
-        <v>0.03107379676305846</v>
+        <v>0.02628814561146069</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.222109</v>
       </c>
       <c r="I9">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400421</v>
       </c>
       <c r="J9">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400422</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.008309666666666667</v>
+        <v>0.017471</v>
       </c>
       <c r="N9">
-        <v>0.024929</v>
+        <v>0.052413</v>
       </c>
       <c r="O9">
-        <v>0.001234836608662848</v>
+        <v>0.002326658544913526</v>
       </c>
       <c r="P9">
-        <v>0.001234836608662848</v>
+        <v>0.002326658544913525</v>
       </c>
       <c r="Q9">
-        <v>0.0006152172512222222</v>
+        <v>0.001293488779666667</v>
       </c>
       <c r="R9">
-        <v>0.005536955261</v>
+        <v>0.011641399017</v>
       </c>
       <c r="S9">
-        <v>9.921150635996284E-05</v>
+        <v>0.000128483113606154</v>
       </c>
       <c r="T9">
-        <v>9.921150635996283E-05</v>
+        <v>0.000128483113606154</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8384493333333333</v>
+        <v>1.117936666666667</v>
       </c>
       <c r="H10">
-        <v>2.515348</v>
+        <v>3.35381</v>
       </c>
       <c r="I10">
-        <v>0.9098807334903006</v>
+        <v>0.8338457109086573</v>
       </c>
       <c r="J10">
-        <v>0.9098807334903007</v>
+        <v>0.8338457109086574</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4440536666666667</v>
+        <v>0.242595</v>
       </c>
       <c r="N10">
-        <v>1.332161</v>
+        <v>0.727785</v>
       </c>
       <c r="O10">
-        <v>0.06598745121877765</v>
+        <v>0.03230700759563258</v>
       </c>
       <c r="P10">
-        <v>0.06598745121877764</v>
+        <v>0.03230700759563257</v>
       </c>
       <c r="Q10">
-        <v>0.3723165007808889</v>
+        <v>0.2712058456500001</v>
       </c>
       <c r="R10">
-        <v>3.350848507028</v>
+        <v>2.44085261085</v>
       </c>
       <c r="S10">
-        <v>0.06004071051609684</v>
+        <v>0.02693905971591164</v>
       </c>
       <c r="T10">
-        <v>0.06004071051609684</v>
+        <v>0.02693905971591164</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8384493333333333</v>
+        <v>1.117936666666667</v>
       </c>
       <c r="H11">
-        <v>2.515348</v>
+        <v>3.35381</v>
       </c>
       <c r="I11">
-        <v>0.9098807334903006</v>
+        <v>0.8338457109086573</v>
       </c>
       <c r="J11">
-        <v>0.9098807334903007</v>
+        <v>0.8338457109086574</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>11.023054</v>
       </c>
       <c r="O11">
-        <v>0.5460175144798203</v>
+        <v>0.4893229309549773</v>
       </c>
       <c r="P11">
-        <v>0.5460175144798202</v>
+        <v>0.4893229309549771</v>
       </c>
       <c r="Q11">
-        <v>3.080757425865777</v>
+        <v>4.10769208174889</v>
       </c>
       <c r="R11">
-        <v>27.726816832792</v>
+        <v>36.96922873574</v>
       </c>
       <c r="S11">
-        <v>0.4968108165734497</v>
+        <v>0.4080198272260608</v>
       </c>
       <c r="T11">
-        <v>0.4968108165734497</v>
+        <v>0.4080198272260608</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8384493333333333</v>
+        <v>1.117936666666667</v>
       </c>
       <c r="H12">
-        <v>2.515348</v>
+        <v>3.35381</v>
       </c>
       <c r="I12">
-        <v>0.9098807334903006</v>
+        <v>0.8338457109086573</v>
       </c>
       <c r="J12">
-        <v>0.9098807334903007</v>
+        <v>0.8338457109086574</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.602650666666667</v>
+        <v>3.574634666666667</v>
       </c>
       <c r="N12">
-        <v>7.807952</v>
+        <v>10.723904</v>
       </c>
       <c r="O12">
-        <v>0.3867601976927394</v>
+        <v>0.4760434029044768</v>
       </c>
       <c r="P12">
-        <v>0.3867601976927393</v>
+        <v>0.4760434029044767</v>
       </c>
       <c r="Q12">
-        <v>2.182190716366222</v>
+        <v>3.996215163804445</v>
       </c>
       <c r="R12">
-        <v>19.639716447296</v>
+        <v>35.96593647424</v>
       </c>
       <c r="S12">
-        <v>0.3519056523615234</v>
+        <v>0.3969467497182598</v>
       </c>
       <c r="T12">
-        <v>0.3519056523615233</v>
+        <v>0.3969467497182598</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8384493333333333</v>
+        <v>1.117936666666667</v>
       </c>
       <c r="H13">
-        <v>2.515348</v>
+        <v>3.35381</v>
       </c>
       <c r="I13">
-        <v>0.9098807334903006</v>
+        <v>0.8338457109086573</v>
       </c>
       <c r="J13">
-        <v>0.9098807334903007</v>
+        <v>0.8338457109086574</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.008309666666666667</v>
+        <v>0.017471</v>
       </c>
       <c r="N13">
-        <v>0.024929</v>
+        <v>0.052413</v>
       </c>
       <c r="O13">
-        <v>0.001234836608662848</v>
+        <v>0.002326658544913526</v>
       </c>
       <c r="P13">
-        <v>0.001234836608662848</v>
+        <v>0.002326658544913525</v>
       </c>
       <c r="Q13">
-        <v>0.006967234476888888</v>
+        <v>0.01953147150333333</v>
       </c>
       <c r="R13">
-        <v>0.062705110292</v>
+        <v>0.17578324353</v>
       </c>
       <c r="S13">
-        <v>0.001123554039230827</v>
+        <v>0.001940074248425121</v>
       </c>
       <c r="T13">
-        <v>0.001123554039230827</v>
+        <v>0.001940074248425121</v>
       </c>
     </row>
   </sheetData>
